--- a/doc/04_DB定義書_炙りえんがわ.xlsx
+++ b/doc/04_DB定義書_炙りえんがわ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/hashimoto-miku-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{941B9399-1985-49C9-B9AF-F06E43F58ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4BD4A-CA45-4DD3-B87B-AEB05398DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -508,6 +508,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -528,12 +530,16 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック "/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -928,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1253,7 +1259,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1654,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="36" t="s">
         <v>32</v>
       </c>
@@ -1769,7 +1775,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L28" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v xml:space="preserve">id int </v>
       </c>
     </row>
@@ -1787,7 +1793,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1805,7 +1811,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1823,7 +1829,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1841,7 +1847,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1859,7 +1865,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1875,84 +1881,86 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4045,7 +4053,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
@@ -5134,7 +5142,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
@@ -5313,7 +5321,7 @@
         <v>112</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L10:L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>review_id varchar (7),</v>
       </c>
     </row>
@@ -5631,7 +5639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E192095-25F8-4E76-90DF-1824E2605E2E}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5648,7 +5656,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -5769,7 +5777,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L28" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v xml:space="preserve">id int </v>
       </c>
     </row>
@@ -5787,7 +5795,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5805,7 +5813,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5823,7 +5831,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5841,7 +5849,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5859,7 +5867,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5875,88 +5883,104 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -6088,29 +6112,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/04_DB定義書_炙りえんがわ.xlsx
+++ b/doc/04_DB定義書_炙りえんがわ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25401"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/hashimoto-miku-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4BD4A-CA45-4DD3-B87B-AEB05398DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF23BCD-B768-4B20-90AC-31461867838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="m_stamp" sheetId="9" r:id="rId6"/>
     <sheet name="t_review" sheetId="8" r:id="rId7"/>
     <sheet name="t_reply" sheetId="10" r:id="rId8"/>
-    <sheet name="t_follow" sheetId="11" r:id="rId9"/>
-    <sheet name="t_follower" sheetId="12" r:id="rId10"/>
+    <sheet name="t_reaction" sheetId="13" r:id="rId9"/>
+    <sheet name="t_follow" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="123">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -187,10 +187,10 @@
     <t>t_follow</t>
   </si>
   <si>
-    <t>フォロワーテーブル</t>
-  </si>
-  <si>
-    <t>t_follower</t>
+    <t>リアクションテーブル</t>
+  </si>
+  <si>
+    <t>t_reaction</t>
   </si>
   <si>
     <t>ユーザマスタ</t>
@@ -271,7 +271,7 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>u+5桁の数字（ユーザー数を想定）</t>
+    <t>u+9桁の数字（ユーザー数を想定）</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -310,19 +310,13 @@
     <t>user_hd</t>
   </si>
   <si>
-    <t>フォロー数ID</t>
-  </si>
-  <si>
-    <t>フォロワー数ID</t>
-  </si>
-  <si>
     <t>作品ID</t>
   </si>
   <si>
     <t>video_id</t>
   </si>
   <si>
-    <t>ｖ+5桁の数字</t>
+    <t>ｖ+9桁の数字</t>
   </si>
   <si>
     <t>作品名</t>
@@ -352,7 +346,7 @@
     <t>t_genreからのジャンルID</t>
   </si>
   <si>
-    <t>g+5桁の数字</t>
+    <t>g+9桁の数字</t>
   </si>
   <si>
     <t>ジャンル名</t>
@@ -367,7 +361,7 @@
     <t>feelcat_id</t>
   </si>
   <si>
-    <t>f+5桁の数字</t>
+    <t>f+9桁の数字</t>
   </si>
   <si>
     <t>感想カテゴリ名</t>
@@ -382,7 +376,7 @@
     <t>stamp_id</t>
   </si>
   <si>
-    <t>s+5桁の数字</t>
+    <t>s+9桁の数字</t>
   </si>
   <si>
     <t>スタンプ名</t>
@@ -391,13 +385,16 @@
     <t>stamp_name</t>
   </si>
   <si>
+    <t>画像URL</t>
+  </si>
+  <si>
     <t>レビューID</t>
   </si>
   <si>
     <t>review_id</t>
   </si>
   <si>
-    <t>rv+5桁の数字</t>
+    <t>rv+8桁の数字</t>
   </si>
   <si>
     <t>m_videoからの作品ID</t>
@@ -412,6 +409,9 @@
     <t>review_contents</t>
   </si>
   <si>
+    <t>m_genreからのジャンルID</t>
+  </si>
+  <si>
     <t>感想カテゴリ1</t>
   </si>
   <si>
@@ -433,28 +433,22 @@
     <t>star</t>
   </si>
   <si>
+    <t>レビュー日付</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>リプライID</t>
   </si>
   <si>
     <t>reply_id</t>
   </si>
   <si>
-    <t>t_replyからのリプライID</t>
-  </si>
-  <si>
-    <t>m_stampからのスタンプID</t>
-  </si>
-  <si>
-    <t>レビュー日付</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>rp+5桁の数字</t>
+    <t>rp+8桁の数字</t>
   </si>
   <si>
     <t>t_reviewからのレビューID</t>
@@ -473,6 +467,27 @@
   </si>
   <si>
     <t>reply_date</t>
+  </si>
+  <si>
+    <t>リアクションID</t>
+  </si>
+  <si>
+    <t>reaction_id</t>
+  </si>
+  <si>
+    <t>ra+8桁の数字</t>
+  </si>
+  <si>
+    <t>ユーザーが押したスタンプの種類</t>
+  </si>
+  <si>
+    <t>m_userからのuser_id</t>
+  </si>
+  <si>
+    <t>フォローID</t>
+  </si>
+  <si>
+    <t>follow_id</t>
   </si>
 </sst>
 </file>
@@ -508,8 +523,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -524,25 +537,22 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック "/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,8 +565,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -736,17 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -795,13 +800,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +917,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -865,7 +935,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -892,28 +962,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,7 +1031,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,10 +1354,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1317,23 +1414,25 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="34">
+        <v>44721</v>
+      </c>
+      <c r="F5" s="19"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1353,13 +1452,13 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1377,7 +1476,7 @@
       <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="10"/>
@@ -1392,19 +1491,19 @@
       <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>5</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1413,37 +1512,37 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>6</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="10">
+      <c r="B15" s="16">
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1452,7 +1551,7 @@
       <c r="D15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="10"/>
@@ -1461,170 +1560,19 @@
       <c r="B16" s="10">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1634,11 +1582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13CC08-4E4A-457A-BE62-7A74FC588CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E192095-25F8-4E76-90DF-1824E2605E2E}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1654,9 +1602,9 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="36" t="s">
-        <v>32</v>
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1692,7 +1640,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1706,47 +1654,49 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>44721</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table t_follower (</v>
+        <v>create table t_follow (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1775,192 +1725,168 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L28" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">id int </v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="B11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="36">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="10">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="18">
+        <v>10</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>follow_id varchar (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="10">
-        <v>4</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10">
-        <v>5</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="17">
-        <v>6</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1969,7 +1895,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2045,34 +1971,34 @@
       <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
@@ -2081,7 +2007,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2110,7 +2036,7 @@
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -2120,7 +2046,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>46</v>
@@ -2133,7 +2059,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (6),</v>
+        <v>user_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2273,38 +2199,34 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>8</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>50</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v>user_hd varchar (50)</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -2319,196 +2241,88 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="10">
-        <v>10</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="C21" s="20"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="C22" s="20"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="C23" s="20"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="C24" s="20"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="C25" s="20"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="C26" s="20"/>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2524,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB5ED8-843C-4053-A1FD-A72BC5FA4072}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2667,29 +2481,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>video_id varchar (6),</v>
+        <v>video_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2697,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -2725,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -2751,10 +2563,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>45</v>
@@ -2777,16 +2589,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -2795,248 +2607,98 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>genre_id varchar (6)</v>
+        <v>genre_id varchar (10)</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+    <row r="17" spans="12:12">
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+    <row r="18" spans="12:12">
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+    <row r="19" spans="12:12">
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+    <row r="20" spans="12:12">
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+    <row r="21" spans="12:12">
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+    <row r="22" spans="12:12">
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+    <row r="23" spans="12:12">
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+    <row r="24" spans="12:12">
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+    <row r="25" spans="12:12">
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+    <row r="26" spans="12:12">
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+    <row r="27" spans="12:12">
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+    <row r="28" spans="12:12">
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+    <row r="29" spans="12:12">
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+    <row r="30" spans="12:12">
       <c r="L30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -3052,7 +2714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F60E3D0-DD97-482D-9F47-7B4ABC935BEE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3163,7 +2827,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3193,342 +2857,160 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>genre_id varchar (6),</v>
+        <v>genre_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>10</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>genre_name varchar (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+    <row r="17" spans="12:12">
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+    <row r="18" spans="12:12">
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+    <row r="19" spans="12:12">
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+    <row r="20" spans="12:12">
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+    <row r="21" spans="12:12">
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+    <row r="22" spans="12:12">
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+    <row r="23" spans="12:12">
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+    <row r="24" spans="12:12">
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+    <row r="25" spans="12:12">
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+    <row r="26" spans="12:12">
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+    <row r="27" spans="12:12">
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+    <row r="28" spans="12:12">
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+    <row r="29" spans="12:12">
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+    <row r="30" spans="12:12">
       <c r="L30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -3545,7 +3027,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3657,7 +3139,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3683,346 +3165,164 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>feelcat_id varchar (6),</v>
+        <v>feelcat_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>10</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>feelcat_name varchar (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+    <row r="17" spans="12:12">
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+    <row r="18" spans="12:12">
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+    <row r="19" spans="12:12">
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+    <row r="20" spans="12:12">
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+    <row r="21" spans="12:12">
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+    <row r="22" spans="12:12">
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+    <row r="23" spans="12:12">
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+    <row r="24" spans="12:12">
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+    <row r="25" spans="12:12">
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+    <row r="26" spans="12:12">
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+    <row r="27" spans="12:12">
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+    <row r="28" spans="12:12">
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+    <row r="29" spans="12:12">
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+    <row r="30" spans="12:12">
       <c r="L30" t="e">
         <f>C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4038,7 +3338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72DABFE-E2AA-49B1-983F-097F9AC45802}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4053,8 +3355,8 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4149,7 +3451,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -4175,347 +3477,168 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>stamp_id varchar (6),</v>
+        <v>stamp_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="21">
+        <v>50</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="22">
-        <v>50</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>stamp_name varchar (50)</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="12:12">
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="12:12">
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(C31&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4527,10 +3650,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6522CB48-C4AF-4498-9E77-C9F9F8236409}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4547,7 +3670,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4606,34 +3729,34 @@
       <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
@@ -4642,7 +3765,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -4671,17 +3794,17 @@
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
@@ -4690,11 +3813,11 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>review_id varchar (7),</v>
+        <v>review_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4702,16 +3825,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4720,11 +3843,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>video_id varchar (6),</v>
+        <v>video_id varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4741,7 +3864,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4750,22 +3873,22 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id varchar (6),</v>
+        <v>user_id varchar (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>5</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -4790,16 +3913,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4807,13 +3930,15 @@
         <v>46</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -4847,14 +3972,14 @@
       <c r="C17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <v>10</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
@@ -4872,248 +3997,132 @@
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="23" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>star varchar (1),</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="17">
-        <v>10</v>
-      </c>
-      <c r="B19" s="32" t="s">
+    <row r="19" spans="1:12" s="38" customFormat="1">
+      <c r="A19" s="37">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="44" t="s">
         <v>105</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="10">
-        <v>7</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>reply_id varchar (7),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="10">
-        <v>11</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="34">
-        <v>50</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>stamp_id varchar (50),</v>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="L19" s="38" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">review_date datetime </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="38" customFormat="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="L20" s="38" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="19">
-        <v>12</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="A21" s="37"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="H21" s="15"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">review_date datetime </v>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5123,10 +4132,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5C53F-C974-4E7F-BB92-F495339F2154}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5142,8 +4151,8 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5202,34 +4211,34 @@
       <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
@@ -5268,48 +4277,48 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="19">
-        <v>7</v>
-      </c>
-      <c r="F11" s="26"/>
+      <c r="E11" s="18">
+        <v>10</v>
+      </c>
+      <c r="F11" s="25"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="35"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>reply_id varchar (7),</v>
+        <v>reply_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5318,18 +4327,18 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L12" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>review_id varchar (7),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>review_id varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -5339,7 +4348,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5348,22 +4357,22 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id varchar (6),</v>
+        <v>user_id varchar (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>114</v>
+      <c r="B14" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -5384,17 +4393,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>6</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>116</v>
+      <c r="B15" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -5405,229 +4414,97 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L28" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">reply_date datetime </v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5636,11 +4513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E192095-25F8-4E76-90DF-1824E2605E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDB1E4-7DA1-49A0-906A-E1CC4E053A8B}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5656,9 +4533,9 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="36" t="s">
-        <v>30</v>
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -5686,7 +4563,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>44720</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5708,7 +4585,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5716,39 +4593,39 @@
       <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table t_follow (</v>
+        <v>create table t_reaction (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5777,210 +4654,224 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L28" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">id int </v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="18">
+        <v>10</v>
+      </c>
+      <c r="F11" s="25"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>reaction_id varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>review_id varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id varchar (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10">
+      <c r="A14" s="16">
         <v>5</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="12">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>stamp_id varchar (10)</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="17">
-        <v>6</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -6112,37 +5003,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}"/>
 </file>
--- a/doc/04_DB定義書_炙りえんがわ.xlsx
+++ b/doc/04_DB定義書_炙りえんがわ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/hashimoto-miku-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF23BCD-B768-4B20-90AC-31461867838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABFB803-E372-45EA-B0A4-58A91300638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +972,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
@@ -1356,8 +1359,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1414,7 +1417,7 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="35">
         <v>44721</v>
       </c>
       <c r="F5" s="19"/>
@@ -1569,7 +1572,7 @@
       <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="30"/>
@@ -1586,7 +1589,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1733,16 +1736,16 @@
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="37">
         <v>10</v>
       </c>
       <c r="F11" s="21"/>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="37" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="8"/>
@@ -1790,18 +1793,48 @@
       </c>
     </row>
     <row r="13" spans="1:12">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
       <c r="L15" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
@@ -1894,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2338,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB5ED8-843C-4053-A1FD-A72BC5FA4072}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2715,7 +2748,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3027,7 +3060,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3339,7 +3372,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3652,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6522CB48-C4AF-4498-9E77-C9F9F8236409}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3997,7 +4030,7 @@
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>103</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -4018,52 +4051,52 @@
         <v>star varchar (1),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="38" customFormat="1">
-      <c r="A19" s="37">
+    <row r="19" spans="1:12" s="39" customFormat="1">
+      <c r="A19" s="38">
         <v>12</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>105</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="L19" s="38" t="str">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="L19" s="39" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">review_date datetime </v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="L20" s="38" t="str">
+    <row r="20" spans="1:12" s="39" customFormat="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="L20" s="39" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -4134,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5C53F-C974-4E7F-BB92-F495339F2154}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4516,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDB1E4-7DA1-49A0-906A-E1CC4E053A8B}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4789,6 +4822,16 @@
       <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:12">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
@@ -4872,6 +4915,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -5003,23 +5061,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5027,5 +5070,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}"/>
 </file>
--- a/doc/04_DB定義書_炙りえんがわ.xlsx
+++ b/doc/04_DB定義書_炙りえんがわ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/hashimoto-miku-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABFB803-E372-45EA-B0A4-58A91300638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA62B5-33CC-4769-B9DA-EA07AD6F704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="195" windowWidth="17355" windowHeight="10095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="124">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -322,172 +322,178 @@
     <t>作品名</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>video_year</t>
+  </si>
+  <si>
+    <t>再生時間</t>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+  </si>
+  <si>
+    <t>genre_id</t>
+  </si>
+  <si>
+    <t>t_genreからのジャンルID</t>
+  </si>
+  <si>
+    <t>g+9桁の数字</t>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+  </si>
+  <si>
+    <t>genre_name</t>
+  </si>
+  <si>
+    <t>感想カテゴリID</t>
+  </si>
+  <si>
+    <t>feelcat_id</t>
+  </si>
+  <si>
+    <t>f+9桁の数字</t>
+  </si>
+  <si>
+    <t>感想カテゴリ名</t>
+  </si>
+  <si>
+    <t>feelcat_name</t>
+  </si>
+  <si>
+    <t>スタンプID</t>
+  </si>
+  <si>
+    <t>stamp_id</t>
+  </si>
+  <si>
+    <t>s+9桁の数字</t>
+  </si>
+  <si>
+    <t>スタンプ名</t>
+  </si>
+  <si>
+    <t>stamp_name</t>
+  </si>
+  <si>
+    <t>画像URL</t>
+  </si>
+  <si>
+    <t>レビューID</t>
+  </si>
+  <si>
+    <t>review_id</t>
+  </si>
+  <si>
+    <t>rv+8桁の数字</t>
+  </si>
+  <si>
+    <t>m_videoからの作品ID</t>
+  </si>
+  <si>
+    <t>m_userからのユーザーID</t>
+  </si>
+  <si>
+    <t>レビュー内容</t>
+  </si>
+  <si>
+    <t>review_contents</t>
+  </si>
+  <si>
+    <t>m_genreからのジャンルID</t>
+  </si>
+  <si>
+    <t>感想カテゴリ1</t>
+  </si>
+  <si>
+    <t>feelcat_name1</t>
+  </si>
+  <si>
+    <t>感想カテゴリ2</t>
+  </si>
+  <si>
+    <t>feelcat_name2</t>
+  </si>
+  <si>
+    <t>感想カテゴリ１と被らない</t>
+  </si>
+  <si>
+    <t>5段階評価</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>レビュー日付</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>リプライID</t>
+  </si>
+  <si>
+    <t>reply_id</t>
+  </si>
+  <si>
+    <t>rp+8桁の数字</t>
+  </si>
+  <si>
+    <t>t_reviewからのレビューID</t>
+  </si>
+  <si>
+    <t>t_reviewからのユーザーID</t>
+  </si>
+  <si>
+    <t>リプライ内容</t>
+  </si>
+  <si>
+    <t>reply_contents</t>
+  </si>
+  <si>
+    <t>リプライ日付</t>
+  </si>
+  <si>
+    <t>reply_date</t>
+  </si>
+  <si>
+    <t>リアクションID</t>
+  </si>
+  <si>
+    <t>reaction_id</t>
+  </si>
+  <si>
+    <t>ra+8桁の数字</t>
+  </si>
+  <si>
+    <t>ユーザーが押したスタンプの種類</t>
+  </si>
+  <si>
+    <t>m_userからのuser_id</t>
+  </si>
+  <si>
+    <t>フォローID</t>
+  </si>
+  <si>
+    <t>follow_id</t>
+  </si>
+  <si>
     <t>video_name</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>video_year</t>
-  </si>
-  <si>
-    <t>再生時間</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>video_time</t>
-  </si>
-  <si>
-    <t>ジャンルID</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>genre_id</t>
-  </si>
-  <si>
-    <t>t_genreからのジャンルID</t>
-  </si>
-  <si>
-    <t>g+9桁の数字</t>
-  </si>
-  <si>
-    <t>ジャンル名</t>
-  </si>
-  <si>
-    <t>genre_name</t>
-  </si>
-  <si>
-    <t>感想カテゴリID</t>
-  </si>
-  <si>
-    <t>feelcat_id</t>
-  </si>
-  <si>
-    <t>f+9桁の数字</t>
-  </si>
-  <si>
-    <t>感想カテゴリ名</t>
-  </si>
-  <si>
-    <t>feelcat_name</t>
-  </si>
-  <si>
-    <t>スタンプID</t>
-  </si>
-  <si>
-    <t>stamp_id</t>
-  </si>
-  <si>
-    <t>s+9桁の数字</t>
-  </si>
-  <si>
-    <t>スタンプ名</t>
-  </si>
-  <si>
-    <t>stamp_name</t>
-  </si>
-  <si>
-    <t>画像URL</t>
-  </si>
-  <si>
-    <t>レビューID</t>
-  </si>
-  <si>
-    <t>review_id</t>
-  </si>
-  <si>
-    <t>rv+8桁の数字</t>
-  </si>
-  <si>
-    <t>m_videoからの作品ID</t>
-  </si>
-  <si>
-    <t>m_userからのユーザーID</t>
-  </si>
-  <si>
-    <t>レビュー内容</t>
-  </si>
-  <si>
-    <t>review_contents</t>
-  </si>
-  <si>
-    <t>m_genreからのジャンルID</t>
-  </si>
-  <si>
-    <t>感想カテゴリ1</t>
-  </si>
-  <si>
-    <t>feelcat_name1</t>
-  </si>
-  <si>
-    <t>感想カテゴリ2</t>
-  </si>
-  <si>
-    <t>feelcat_name2</t>
-  </si>
-  <si>
-    <t>感想カテゴリ１と被らない</t>
-  </si>
-  <si>
-    <t>5段階評価</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>レビュー日付</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>リプライID</t>
-  </si>
-  <si>
-    <t>reply_id</t>
-  </si>
-  <si>
-    <t>rp+8桁の数字</t>
-  </si>
-  <si>
-    <t>t_reviewからのレビューID</t>
-  </si>
-  <si>
-    <t>t_reviewからのユーザーID</t>
-  </si>
-  <si>
-    <t>リプライ内容</t>
-  </si>
-  <si>
-    <t>reply_contents</t>
-  </si>
-  <si>
-    <t>リプライ日付</t>
-  </si>
-  <si>
-    <t>reply_date</t>
-  </si>
-  <si>
-    <t>リアクションID</t>
-  </si>
-  <si>
-    <t>reaction_id</t>
-  </si>
-  <si>
-    <t>ra+8桁の数字</t>
-  </si>
-  <si>
-    <t>ユーザーが押したスタンプの種類</t>
-  </si>
-  <si>
-    <t>m_userからのuser_id</t>
-  </si>
-  <si>
-    <t>フォローID</t>
-  </si>
-  <si>
-    <t>follow_id</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -523,6 +529,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -544,12 +552,16 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック "/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1034,7 +1046,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1605,7 +1617,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="31" t="s">
         <v>30</v>
       </c>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1767,10 +1779,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>49</v>
@@ -1785,7 +1797,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1820,7 +1832,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L14:L28" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1836,89 +1848,90 @@
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
       <c r="L15" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2371,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB5ED8-843C-4053-A1FD-A72BC5FA4072}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2545,7 +2558,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -2570,10 +2583,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -2596,10 +2609,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>45</v>
@@ -2622,10 +2635,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>49</v>
@@ -2640,7 +2653,7 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2890,10 +2903,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -2906,7 +2919,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2918,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3202,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3218,7 +3231,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3230,10 +3243,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3388,7 +3401,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
@@ -3514,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3530,10 +3543,10 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L30" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>stamp_id varchar (10),</v>
       </c>
     </row>
@@ -3542,10 +3555,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3560,118 +3573,118 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>stamp_name varchar (50)</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="12:12">
       <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="12:12">
       <c r="L30" t="str">
-        <f>C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(C31&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3828,10 +3841,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>49</v>
@@ -3846,7 +3859,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3876,7 +3889,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3906,7 +3919,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3918,10 +3931,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -3946,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -3964,7 +3977,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3972,10 +3985,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>49</v>
@@ -4000,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>49</v>
@@ -4016,7 +4029,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -4028,10 +4041,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>49</v>
@@ -4056,13 +4069,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
@@ -4184,7 +4197,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="31" t="s">
         <v>28</v>
       </c>
@@ -4305,7 +4318,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L28" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -4314,10 +4327,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>49</v>
@@ -4330,10 +4343,10 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>reply_id varchar (10),</v>
       </c>
     </row>
@@ -4342,10 +4355,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>49</v>
@@ -4360,10 +4373,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>review_id varchar (10),</v>
       </c>
     </row>
@@ -4390,10 +4403,10 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_id varchar (10),</v>
       </c>
     </row>
@@ -4402,10 +4415,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -4421,7 +4434,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>reply_contents varchar (140),</v>
       </c>
     </row>
@@ -4430,13 +4443,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -4447,7 +4460,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">reply_date datetime </v>
       </c>
     </row>
@@ -4463,79 +4476,79 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4549,7 +4562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDB1E4-7DA1-49A0-906A-E1CC4E053A8B}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -4566,7 +4579,7 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
@@ -4696,10 +4709,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>49</v>
@@ -4712,7 +4725,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4724,10 +4737,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>49</v>
@@ -4742,7 +4755,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4772,7 +4785,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4784,10 +4797,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>49</v>
@@ -4802,7 +4815,7 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4833,103 +4846,89 @@
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L28" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="12:12">
       <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="12:12">
       <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="12:12">
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="12:12">
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -5061,14 +5060,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/04_DB定義書_炙りえんがわ.xlsx
+++ b/doc/04_DB定義書_炙りえんがわ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA62B5-33CC-4769-B9DA-EA07AD6F704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC951654-A43F-4A01-A14B-93B55F37FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="195" windowWidth="17355" windowHeight="10095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="345" windowWidth="17355" windowHeight="10095" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -313,24 +313,9 @@
     <t>作品ID</t>
   </si>
   <si>
-    <t>video_id</t>
-  </si>
-  <si>
     <t>ｖ+9桁の数字</t>
   </si>
   <si>
-    <t>作品名</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>video_year</t>
-  </si>
-  <si>
-    <t>再生時間</t>
-  </si>
-  <si>
     <t>ジャンルID</t>
   </si>
   <si>
@@ -352,9 +337,6 @@
     <t>感想カテゴリID</t>
   </si>
   <si>
-    <t>feelcat_id</t>
-  </si>
-  <si>
     <t>f+9桁の数字</t>
   </si>
   <si>
@@ -400,37 +382,22 @@
     <t>レビュー内容</t>
   </si>
   <si>
-    <t>review_contents</t>
-  </si>
-  <si>
     <t>m_genreからのジャンルID</t>
   </si>
   <si>
     <t>感想カテゴリ1</t>
   </si>
   <si>
-    <t>feelcat_name1</t>
-  </si>
-  <si>
     <t>感想カテゴリ2</t>
   </si>
   <si>
-    <t>feelcat_name2</t>
-  </si>
-  <si>
     <t>感想カテゴリ１と被らない</t>
   </si>
   <si>
     <t>5段階評価</t>
   </si>
   <si>
-    <t>star</t>
-  </si>
-  <si>
     <t>レビュー日付</t>
-  </si>
-  <si>
-    <t>review_date</t>
   </si>
   <si>
     <t>datetime</t>
@@ -493,6 +460,74 @@
   </si>
   <si>
     <t>genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feelcat_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_review</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>video_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>video_year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再生時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feelcat_name1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feelcat_name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>star</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1767,7 +1802,7 @@
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1779,10 +1814,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>49</v>
@@ -1797,7 +1832,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1933,6 +1968,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1941,7 +1977,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2384,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB5ED8-843C-4053-A1FD-A72BC5FA4072}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2527,13 +2563,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -2543,7 +2579,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2555,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -2583,10 +2619,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -2609,10 +2645,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>45</v>
@@ -2635,10 +2671,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>49</v>
@@ -2653,7 +2689,7 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2903,10 +2939,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -2919,7 +2955,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2931,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3073,7 +3109,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3215,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3231,7 +3267,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3243,10 +3279,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3527,10 +3563,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3543,7 +3579,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L30" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3555,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3573,7 +3609,7 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -3698,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6522CB48-C4AF-4498-9E77-C9F9F8236409}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3767,7 +3803,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3841,10 +3877,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>49</v>
@@ -3859,7 +3895,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3874,7 +3910,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -3889,7 +3925,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3904,7 +3940,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -3919,7 +3955,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3931,10 +3967,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -3959,10 +3995,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -3977,7 +4013,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3985,10 +4021,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>49</v>
@@ -4013,10 +4049,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>49</v>
@@ -4029,7 +4065,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -4041,10 +4077,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>49</v>
@@ -4065,17 +4101,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="39" customFormat="1">
-      <c r="A19" s="38">
-        <v>12</v>
+      <c r="A19" s="18">
+        <v>10</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
@@ -4327,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>49</v>
@@ -4343,7 +4379,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -4355,10 +4391,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>49</v>
@@ -4373,7 +4409,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -4403,7 +4439,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -4415,10 +4451,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -4443,13 +4479,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -4709,10 +4745,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>49</v>
@@ -4725,7 +4761,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4737,10 +4773,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>49</v>
@@ -4755,7 +4791,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4785,7 +4821,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4797,10 +4833,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>49</v>
@@ -4815,7 +4851,7 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4929,6 +4965,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -5060,22 +5111,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5091,21 +5144,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/04_DB定義書_炙りえんがわ.xlsx
+++ b/doc/04_DB定義書_炙りえんがわ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC951654-A43F-4A01-A14B-93B55F37FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439E5EBB-7405-4B2D-B978-86CB7BECB1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="345" windowWidth="17355" windowHeight="10095" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -289,9 +289,6 @@
     <t>ユーザー名</t>
   </si>
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
     <t>プロフィール文</t>
   </si>
   <si>
@@ -528,6 +525,10 @@
   </si>
   <si>
     <t>star</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1802,7 +1803,7 @@
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1814,10 +1815,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>49</v>
@@ -1832,7 +1833,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1977,7 +1978,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2208,7 +2209,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -2233,10 +2234,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -2259,10 +2260,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>49</v>
@@ -2285,10 +2286,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>49</v>
@@ -2420,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB5ED8-843C-4053-A1FD-A72BC5FA4072}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2563,13 +2564,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -2579,7 +2580,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2591,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -2619,10 +2620,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -2645,10 +2646,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>45</v>
@@ -2671,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>49</v>
@@ -2689,7 +2690,7 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2939,10 +2940,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -2955,7 +2956,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2967,10 +2968,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3251,10 +3252,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3267,7 +3268,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3279,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3563,10 +3564,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3579,7 +3580,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L30" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3591,10 +3592,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>49</v>
@@ -3609,7 +3610,7 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -3735,7 +3736,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3803,7 +3804,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3877,10 +3878,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>49</v>
@@ -3895,7 +3896,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3907,10 +3908,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -3925,7 +3926,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3940,7 +3941,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -3955,7 +3956,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3967,10 +3968,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -3995,10 +3996,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -4013,7 +4014,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4021,10 +4022,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>49</v>
@@ -4049,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>49</v>
@@ -4065,7 +4066,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -4077,10 +4078,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>49</v>
@@ -4105,13 +4106,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
@@ -4363,10 +4364,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>49</v>
@@ -4379,7 +4380,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -4391,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>49</v>
@@ -4409,7 +4410,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -4439,7 +4440,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -4451,10 +4452,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -4479,13 +4480,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -4745,10 +4746,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>49</v>
@@ -4761,7 +4762,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4773,10 +4774,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>49</v>
@@ -4791,7 +4792,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4821,7 +4822,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4833,10 +4834,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>49</v>
@@ -4851,7 +4852,7 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4965,21 +4966,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -5111,24 +5097,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5D2616-1C1A-4989-BEC4-9C53DD1B932D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5144,4 +5128,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A7366-A94F-4F59-91DC-CE12D5B13F9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535C9C25-626B-41ED-AD92-0B6205911E5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>